--- a/Source/ProceduralTanks/Calculations.xlsx
+++ b/Source/ProceduralTanks/Calculations.xlsx
@@ -23,6 +23,7 @@
     <definedName name="thresh">Circle!$C$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Num</t>
   </si>
@@ -371,6 +372,57 @@
   </si>
   <si>
     <t>aerodynamicSystems</t>
+  </si>
+  <si>
+    <t>UnitsPerT</t>
+  </si>
+  <si>
+    <t>Mk2</t>
+  </si>
+  <si>
+    <t>supersonicFlight</t>
+  </si>
+  <si>
+    <t>Mk2-&gt;Mk1</t>
+  </si>
+  <si>
+    <t>Mk3</t>
+  </si>
+  <si>
+    <t>heavyAerodynamics</t>
+  </si>
+  <si>
+    <t>Mk3-&gt;Mk2</t>
+  </si>
+  <si>
+    <t>Stratus-V</t>
+  </si>
+  <si>
+    <t>Stratus-V Cyl</t>
+  </si>
+  <si>
+    <t>specializedControl</t>
+  </si>
+  <si>
+    <t>Toroidal</t>
+  </si>
+  <si>
+    <t>LiqPerT</t>
+  </si>
+  <si>
+    <t>OxPerT</t>
+  </si>
+  <si>
+    <t>RT-10</t>
+  </si>
+  <si>
+    <t>BACC</t>
+  </si>
+  <si>
+    <t>generalRocketry</t>
+  </si>
+  <si>
+    <t>Sepatron</t>
   </si>
 </sst>
 </file>
@@ -684,11 +736,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="154017792"/>
-        <c:axId val="154019328"/>
+        <c:axId val="106614144"/>
+        <c:axId val="133780608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154017792"/>
+        <c:axId val="106614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -697,13 +749,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154019328"/>
+        <c:crossAx val="133780608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154019328"/>
+        <c:axId val="133780608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -712,18 +764,18 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154017792"/>
+        <c:crossAx val="106614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
-        <c:minorUnit val="1.0000000000000004E-2"/>
+        <c:minorUnit val="1.0000000000000005E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -825,23 +877,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="154050944"/>
-        <c:axId val="154052480"/>
+        <c:axId val="133804032"/>
+        <c:axId val="133805568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154050944"/>
+        <c:axId val="133804032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154052480"/>
+        <c:crossAx val="133805568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154052480"/>
+        <c:axId val="133805568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +901,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154050944"/>
+        <c:crossAx val="133804032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -858,7 +910,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -960,23 +1012,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="153944832"/>
-        <c:axId val="153946368"/>
+        <c:axId val="133820800"/>
+        <c:axId val="133822336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153944832"/>
+        <c:axId val="133820800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153946368"/>
+        <c:crossAx val="133822336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153946368"/>
+        <c:axId val="133822336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1036,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153944832"/>
+        <c:crossAx val="133820800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -993,7 +1045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1379,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N18"/>
+  <dimension ref="A2:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1391,7 +1443,7 @@
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -1422,8 +1474,17 @@
       <c r="L2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1446,207 +1507,225 @@
         <v>46</v>
       </c>
       <c r="I3">
-        <f>C3*PI()*B3^2*0.25</f>
+        <f t="shared" ref="I3:I12" si="0">C3*PI()*B3^2*0.25</f>
         <v>0.10693300305349834</v>
       </c>
       <c r="J3">
-        <f>D3/$I3</f>
+        <f t="shared" ref="J3:L6" si="1">D3/$I3</f>
         <v>0.1402747474743184</v>
       </c>
       <c r="K3">
-        <f>E3/$I3</f>
+        <f t="shared" si="1"/>
         <v>53.631711784347743</v>
       </c>
       <c r="L3">
-        <f>F3/$I3</f>
+        <f t="shared" si="1"/>
         <v>65.4615488213486</v>
       </c>
+      <c r="M3">
+        <f>SUM(E3:F3)/D3</f>
+        <v>849</v>
+      </c>
       <c r="N3">
-        <f>K3+L3</f>
-        <v>119.09326060569634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <f>E3/D3</f>
+        <v>382.33333333333337</v>
+      </c>
+      <c r="O3">
+        <f>F3/D3</f>
+        <v>466.66666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>12.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4">
+        <f>SUM(E4:F4)/D4</f>
+        <v>887.99999999999989</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="2">E4/D4</f>
+        <v>400</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O12" si="3">F4/D4</f>
+        <v>487.99999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1.25</v>
-      </c>
-      <c r="C4">
-        <v>0.78125</v>
-      </c>
-      <c r="D4">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <f>C4*PI()*B4^2*0.25</f>
-        <v>0.95873799242852575</v>
-      </c>
-      <c r="J4">
-        <f>D4/$I4</f>
-        <v>6.518986469044033E-2</v>
-      </c>
-      <c r="K4">
-        <f>E4/$I4</f>
-        <v>46.936702577117039</v>
-      </c>
-      <c r="L4">
-        <f>F4/$I4</f>
-        <v>57.367080927587487</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N11" si="0">K4+L4</f>
-        <v>104.30378350470453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>30</v>
       </c>
       <c r="B5">
         <v>1.25</v>
       </c>
       <c r="C5">
-        <v>1.1105</v>
+        <v>0.78125</v>
       </c>
       <c r="D5">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F5">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <f>C5*PI()*B5^2*0.25</f>
-        <v>1.3627885319576036</v>
+        <f t="shared" si="0"/>
+        <v>0.95873799242852575</v>
       </c>
       <c r="J5">
-        <f>D5/$I5</f>
-        <v>9.1723695253321039E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.518986469044033E-2</v>
       </c>
       <c r="K5">
-        <f>E5/$I5</f>
-        <v>66.041060582391154</v>
+        <f t="shared" si="1"/>
+        <v>46.936702577117039</v>
       </c>
       <c r="L5">
-        <f>F5/$I5</f>
-        <v>80.716851822922521</v>
+        <f t="shared" si="1"/>
+        <v>57.367080927587487</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M18" si="4">SUM(E5:F5)/D5</f>
+        <v>1600</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>146.75791240531368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1.25</v>
       </c>
       <c r="C6">
-        <v>1.87819</v>
+        <v>1.1105</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E6">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6">
-        <f>C6*PI()*B6^2*0.25</f>
-        <v>2.304885900799146</v>
+        <f t="shared" si="0"/>
+        <v>1.3627885319576036</v>
       </c>
       <c r="J6">
-        <f>D6/$I6</f>
-        <v>0.10846523895752082</v>
+        <f t="shared" si="1"/>
+        <v>9.1723695253321039E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6" si="1">E6/$I6</f>
-        <v>78.094972049414991</v>
+        <f t="shared" si="1"/>
+        <v>66.041060582391154</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6" si="2">F6/$I6</f>
-        <v>95.449410282618317</v>
+        <f t="shared" si="1"/>
+        <v>80.716851822922521</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1600</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>173.54438233203331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1.25</v>
       </c>
       <c r="C7">
+        <v>1.87819</v>
+      </c>
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.304885900799146</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J12" si="5">D7/$I7</f>
+        <v>0.10846523895752082</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:L12" si="6">E7/$I7</f>
+        <v>78.094972049414991</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>95.449410282618317</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
         <v>3.75</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>360</v>
-      </c>
-      <c r="F7">
-        <v>440</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <f>C7*PI()*B7^2*0.25</f>
-        <v>4.6019423636569234</v>
-      </c>
-      <c r="J7">
-        <f>D7/$I7</f>
-        <v>0.10864977448406722</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K9" si="3">E7/$I7</f>
-        <v>78.227837628528405</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L9" si="4">F7/$I7</f>
-        <v>95.611801545979162</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>173.83963917450757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>2.5</v>
-      </c>
-      <c r="C8">
-        <v>0.9375</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -1658,311 +1737,639 @@
         <v>440</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I8">
-        <f>C8*PI()*B8^2*0.25</f>
+        <f t="shared" si="0"/>
         <v>4.6019423636569234</v>
       </c>
       <c r="J8">
-        <f>D8/$I8</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="K8">
+        <f t="shared" si="6"/>
+        <v>78.227837628528405</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>95.611801545979162</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>78.227837628528405</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
-        <v>95.611801545979162</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>173.83963917450757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>2.5</v>
       </c>
       <c r="C9">
-        <v>1.875</v>
+        <v>0.9375</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
+        <v>360</v>
+      </c>
+      <c r="F9">
+        <v>440</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4.6019423636569234</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.10864977448406722</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>78.227837628528405</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>95.611801545979162</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="F9">
+      <c r="O9">
+        <f t="shared" si="3"/>
         <v>880</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9">
-        <f>C9*PI()*B9^2*0.25</f>
-        <v>9.2038847273138469</v>
-      </c>
-      <c r="J9">
-        <f>D9/$I9</f>
-        <v>0.10864977448406722</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>78.227837628528405</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>95.611801545979162</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>173.83963917450757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>2.5</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>1.875</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="F10">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10">
-        <f>C10*PI()*B10^2*0.25</f>
-        <v>18.407769454627694</v>
+        <f t="shared" si="0"/>
+        <v>9.2038847273138469</v>
       </c>
       <c r="J10">
-        <f>D10/$I10</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K11" si="5">E10/$I10</f>
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L11" si="6">F10/$I10</f>
+        <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>173.83963917450757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>2.5</v>
       </c>
       <c r="C11">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="F11">
-        <v>3520</v>
+        <v>1760</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <f>C11*PI()*B11^2*0.25</f>
-        <v>36.815538909255388</v>
+        <f t="shared" si="0"/>
+        <v>18.407769454627694</v>
       </c>
       <c r="J11">
-        <f>D11/$I11</f>
+        <f t="shared" si="5"/>
         <v>0.10864977448406722</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.227837628528405</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
         <v>95.611801545979162</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>173.83963917450757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>7.5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2880</v>
+      </c>
+      <c r="F12">
+        <v>3520</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>36.815538909255388</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.10864977448406722</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>78.227837628528405</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>95.611801545979162</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.25</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>2*0.2853027</f>
         <v>0.57060540000000004</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.15</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>100</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>48</v>
-      </c>
-      <c r="I13">
-        <f>C13*PI()*B13^2*0.25</f>
-        <v>0.70023817685104117</v>
-      </c>
-      <c r="J13">
-        <f>D13/$I13</f>
-        <v>0.21421282780460124</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13" si="7">E13/$I13</f>
-        <v>142.80855186973417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>2.5</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.4</v>
-      </c>
-      <c r="E14">
-        <v>750</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
       </c>
       <c r="I14">
         <f>C14*PI()*B14^2*0.25</f>
-        <v>4.908738521234052</v>
+        <v>0.70023817685104117</v>
       </c>
       <c r="J14">
-        <f>D14/$I14</f>
-        <v>8.148733086305042E-2</v>
+        <f t="shared" ref="J14:K16" si="7">D14/$I14</f>
+        <v>0.21421282780460124</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K15" si="8">E14/$I14</f>
-        <v>152.78874536821951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <f t="shared" si="7"/>
+        <v>142.80855186973417</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>2.5</v>
       </c>
       <c r="C15">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="E15">
+        <v>750</v>
+      </c>
+      <c r="G15" t="s">
         <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
       </c>
       <c r="I15">
         <f>C15*PI()*B15^2*0.25</f>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>8.148733086305042E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>152.78874536821951</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>0.625</v>
+      </c>
+      <c r="C16">
+        <v>0.375</v>
+      </c>
+      <c r="D16">
+        <v>0.05</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <f>C16*PI()*B16^2*0.25</f>
         <v>0.11504855909142309</v>
       </c>
-      <c r="J15">
-        <f>D15/$I15</f>
+      <c r="J16">
+        <f t="shared" si="7"/>
         <v>0.43459909793626889</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="8"/>
+      <c r="K16">
+        <f t="shared" si="7"/>
         <v>434.59909793626889</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>533.33333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>0.15</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>1.25</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <f>0.75*2*1.25</f>
         <v>1.875</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>0.4</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>45</v>
       </c>
-      <c r="I17">
-        <f>C17*PI()*B17^2*0.25</f>
+      <c r="I20">
+        <f>C20*PI()*B20^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="J17">
-        <f>D17/$I17</f>
+      <c r="J20">
+        <f>D20/$I20</f>
         <v>0.17383963917450757</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>1.25</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>1.875</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>0.35</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>150</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="I18">
-        <f>C18*PI()*B18^2*0.25</f>
+      <c r="I22">
+        <f>C22*PI()*B22^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="J18">
-        <f>D18/$I18</f>
+      <c r="J22">
+        <f>D22/$I22</f>
         <v>0.15210968427769411</v>
       </c>
-      <c r="K18">
-        <f t="shared" ref="K18" si="9">E18/$I18</f>
+      <c r="K22">
+        <f>E22/$I22</f>
         <v>65.189864690440331</v>
+      </c>
+      <c r="M22">
+        <f>SUM(E22:F22)/D22</f>
+        <v>428.57142857142861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23">
+        <f>SUM(E23:F23)/D23</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24">
+        <f>SUM(E24:F24)/D24</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <f>SUM(E25:F25)/D25</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26">
+        <v>160</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <f>SUM(E26:F26)/D26</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28">
+        <v>1.25</v>
+      </c>
+      <c r="C28">
+        <f>2.4</f>
+        <v>2.4</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>433</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="8">C28*PI()*B28^2*0.25</f>
+        <v>2.9452431127404308</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="9">D28/$I28</f>
+        <v>0.16976527263135505</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28" si="10">E28/$I28</f>
+        <v>147.01672609875348</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M30" si="11">SUM(E28:F28)/D28</f>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29">
+        <v>1.25</v>
+      </c>
+      <c r="C29">
+        <v>7.1</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+      <c r="E29">
+        <v>850</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29" si="12">C29*PI()*B29^2*0.25</f>
+        <v>8.7130108751904416</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="13">D29/$I29</f>
+        <v>0.17215633280926146</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29" si="14">E29/$I29</f>
+        <v>97.555255258581482</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="11"/>
+        <v>566.66666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>0.15</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I32" si="15">C30*PI()*B30^2*0.25</f>
+        <v>8.8357293382212935E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="16">D30/$I30</f>
+        <v>1.4147106052612919</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30" si="17">E30/$I30</f>
+        <v>905.41478736722684</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="11"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32">
+        <v>2.5</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="15"/>
+        <v>49.087385212340514</v>
       </c>
     </row>
   </sheetData>

--- a/Source/ProceduralTanks/Calculations.xlsx
+++ b/Source/ProceduralTanks/Calculations.xlsx
@@ -23,7 +23,6 @@
     <definedName name="thresh">Circle!$C$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Num</t>
   </si>
@@ -423,6 +422,39 @@
   </si>
   <si>
     <t>Sepatron</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>heat/thrust</t>
   </si>
 </sst>
 </file>
@@ -524,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -533,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,11 +771,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106614144"/>
-        <c:axId val="133780608"/>
+        <c:axId val="140557696"/>
+        <c:axId val="140563584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106614144"/>
+        <c:axId val="140557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -749,13 +784,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133780608"/>
+        <c:crossAx val="140563584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133780608"/>
+        <c:axId val="140563584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -764,7 +799,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106614144"/>
+        <c:crossAx val="140557696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -775,7 +810,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -877,23 +912,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133804032"/>
-        <c:axId val="133805568"/>
+        <c:axId val="151531520"/>
+        <c:axId val="151533056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133804032"/>
+        <c:axId val="151531520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133805568"/>
+        <c:crossAx val="151533056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133805568"/>
+        <c:axId val="151533056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +936,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133804032"/>
+        <c:crossAx val="151531520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -910,7 +945,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1012,23 +1047,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133820800"/>
-        <c:axId val="133822336"/>
+        <c:axId val="151556480"/>
+        <c:axId val="151558016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133820800"/>
+        <c:axId val="151556480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133822336"/>
+        <c:crossAx val="151558016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133822336"/>
+        <c:axId val="151558016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1071,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133820800"/>
+        <c:crossAx val="151556480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1045,7 +1080,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1431,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:O32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1443,7 +1478,18 @@
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:25">
+      <c r="H1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -1462,29 +1508,59 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
       <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" t="s">
+      <c r="W2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
+      <c r="X2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1506,36 +1582,57 @@
       <c r="G3" t="s">
         <v>46</v>
       </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="0">C3*PI()*B3^2*0.25</f>
+        <v>0.15</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>2900</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R12" si="0">C3*PI()*B3^2*0.25</f>
         <v>0.10693300305349834</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:L6" si="1">D3/$I3</f>
+      <c r="S3">
+        <f>D3/$R3</f>
         <v>0.1402747474743184</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
+      <c r="T3">
+        <f>E3/$R3</f>
         <v>53.631711784347743</v>
       </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
+      <c r="U3">
+        <f>F3/$R3</f>
         <v>65.4615488213486</v>
       </c>
-      <c r="M3">
+      <c r="V3">
         <f>SUM(E3:F3)/D3</f>
         <v>849</v>
       </c>
-      <c r="N3">
+      <c r="W3">
         <f>E3/D3</f>
         <v>382.33333333333337</v>
       </c>
-      <c r="O3">
+      <c r="X3">
         <f>F3/D3</f>
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1551,20 +1648,20 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="M4">
+      <c r="V4">
         <f>SUM(E4:F4)/D4</f>
         <v>887.99999999999989</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N12" si="2">E4/D4</f>
+      <c r="W4">
+        <f t="shared" ref="W4:W12" si="1">E4/D4</f>
         <v>400</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O12" si="3">F4/D4</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X12" si="2">F4/D4</f>
         <v>487.99999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1586,36 +1683,57 @@
       <c r="G5" t="s">
         <v>40</v>
       </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
       <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="P5">
+        <v>2900</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>0.95873799242852575</v>
       </c>
-      <c r="J5">
+      <c r="S5">
+        <f>D5/$R5</f>
+        <v>6.518986469044033E-2</v>
+      </c>
+      <c r="T5">
+        <f>E5/$R5</f>
+        <v>46.936702577117039</v>
+      </c>
+      <c r="U5">
+        <f>F5/$R5</f>
+        <v>57.367080927587487</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V18" si="3">SUM(E5:F5)/D5</f>
+        <v>1600</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="1"/>
-        <v>6.518986469044033E-2</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>46.936702577117039</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>57.367080927587487</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M18" si="4">SUM(E5:F5)/D5</f>
-        <v>1600</v>
-      </c>
-      <c r="N5">
+        <v>720</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1637,36 +1755,57 @@
       <c r="G6" t="s">
         <v>39</v>
       </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
       <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>2900</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>1.3627885319576036</v>
       </c>
-      <c r="J6">
+      <c r="S6">
+        <f>D6/$R6</f>
+        <v>9.1723695253321039E-2</v>
+      </c>
+      <c r="T6">
+        <f>E6/$R6</f>
+        <v>66.041060582391154</v>
+      </c>
+      <c r="U6">
+        <f>F6/$R6</f>
+        <v>80.716851822922521</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="1"/>
-        <v>9.1723695253321039E-2</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>66.041060582391154</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>80.716851822922521</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="N6">
+        <v>720</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1688,36 +1827,57 @@
       <c r="G7" t="s">
         <v>40</v>
       </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
       <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>2900</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>2.304885900799146</v>
       </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J12" si="5">D7/$I7</f>
+      <c r="S7">
+        <f t="shared" ref="S7:S12" si="4">D7/$R7</f>
         <v>0.10846523895752082</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7:L12" si="6">E7/$I7</f>
+      <c r="T7">
+        <f>E7/$R7</f>
         <v>78.094972049414991</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="6"/>
+      <c r="U7">
+        <f>F7/$R7</f>
         <v>95.449410282618317</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
+      <c r="V7">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="N7">
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1739,36 +1899,57 @@
       <c r="G8" t="s">
         <v>41</v>
       </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
       <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>2900</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>4.6019423636569234</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
+      <c r="S8">
+        <f t="shared" si="4"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
+      <c r="T8">
+        <f>E8/$R8</f>
         <v>78.227837628528405</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
+      <c r="U8">
+        <f>F8/$R8</f>
         <v>95.611801545979162</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
+      <c r="V8">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="N8">
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1790,36 +1971,36 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
-      <c r="I9">
+      <c r="R9">
         <f t="shared" si="0"/>
         <v>4.6019423636569234</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
+      <c r="S9">
+        <f t="shared" si="4"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
+      <c r="T9">
+        <f>E9/$R9</f>
         <v>78.227837628528405</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="6"/>
+      <c r="U9">
+        <f>F9/$R9</f>
         <v>95.611801545979162</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
+      <c r="V9">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="N9">
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1841,36 +2022,57 @@
       <c r="G10" t="s">
         <v>42</v>
       </c>
+      <c r="H10">
+        <v>0.3</v>
+      </c>
       <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>2900</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>9.2038847273138469</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
+      <c r="S10">
+        <f t="shared" si="4"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
+      <c r="T10">
+        <f>E10/$R10</f>
         <v>78.227837628528405</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="6"/>
+      <c r="U10">
+        <f>F10/$R10</f>
         <v>95.611801545979162</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
+      <c r="V10">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="N10">
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1892,36 +2094,57 @@
       <c r="G11" t="s">
         <v>43</v>
       </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
       <c r="I11">
+        <v>0.2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>2900</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>18.407769454627694</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
+      <c r="S11">
+        <f t="shared" si="4"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="6"/>
+      <c r="T11">
+        <f>E11/$R11</f>
         <v>78.227837628528405</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="6"/>
+      <c r="U11">
+        <f>F11/$R11</f>
         <v>95.611801545979162</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
+      <c r="V11">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="N11">
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1943,36 +2166,57 @@
       <c r="G12" t="s">
         <v>44</v>
       </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
       <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>2900</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>36.815538909255388</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
+      <c r="S12">
+        <f t="shared" si="4"/>
         <v>0.10864977448406722</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="6"/>
+      <c r="T12">
+        <f>E12/$R12</f>
         <v>78.227837628528405</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
+      <c r="U12">
+        <f>F12/$R12</f>
         <v>95.611801545979162</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
+      <c r="V12">
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="N12">
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1992,24 +2236,39 @@
       <c r="G14" t="s">
         <v>48</v>
       </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
       <c r="I14">
+        <v>0.2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>2900</v>
+      </c>
+      <c r="R14">
         <f>C14*PI()*B14^2*0.25</f>
         <v>0.70023817685104117</v>
       </c>
-      <c r="J14">
-        <f t="shared" ref="J14:K16" si="7">D14/$I14</f>
+      <c r="S14">
+        <f>D14/$R14</f>
         <v>0.21421282780460124</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
+      <c r="T14">
+        <f>E14/$R14</f>
         <v>142.80855186973417</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
+      <c r="V14">
+        <f t="shared" si="3"/>
         <v>666.66666666666674</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2028,24 +2287,39 @@
       <c r="G15" t="s">
         <v>50</v>
       </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
       <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>2900</v>
+      </c>
+      <c r="R15">
         <f>C15*PI()*B15^2*0.25</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
+      <c r="S15">
+        <f>D15/$R15</f>
         <v>8.148733086305042E-2</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="7"/>
+      <c r="T15">
+        <f>E15/$R15</f>
         <v>152.78874536821951</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
+      <c r="V15">
+        <f t="shared" si="3"/>
         <v>1875</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2064,24 +2338,45 @@
       <c r="G16" t="s">
         <v>46</v>
       </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
       <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>2900</v>
+      </c>
+      <c r="R16">
         <f>C16*PI()*B16^2*0.25</f>
         <v>0.11504855909142309</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
+      <c r="S16">
+        <f>D16/$R16</f>
         <v>0.43459909793626889</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
+      <c r="T16">
+        <f>E16/$R16</f>
         <v>434.59909793626889</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
+      <c r="V16">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2094,12 +2389,27 @@
       <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="P17">
+        <v>2900</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
         <v>533.33333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2112,12 +2422,24 @@
       <c r="G18" t="s">
         <v>64</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2134,16 +2456,37 @@
       <c r="G20" t="s">
         <v>45</v>
       </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
       <c r="I20">
+        <v>0.2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>70</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>3000</v>
+      </c>
+      <c r="R20">
         <f>C20*PI()*B20^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="J20">
-        <f>D20/$I20</f>
+      <c r="S20">
+        <f>D20/$R20</f>
         <v>0.17383963917450757</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2162,24 +2505,24 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="I22">
+      <c r="R22">
         <f>C22*PI()*B22^2*0.25</f>
         <v>2.3009711818284617</v>
       </c>
-      <c r="J22">
-        <f>D22/$I22</f>
+      <c r="S22">
+        <f>D22/$R22</f>
         <v>0.15210968427769411</v>
       </c>
-      <c r="K22">
-        <f>E22/$I22</f>
+      <c r="T22">
+        <f>E22/$R22</f>
         <v>65.189864690440331</v>
       </c>
-      <c r="M22">
+      <c r="V22">
         <f>SUM(E22:F22)/D22</f>
         <v>428.57142857142861</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2192,12 +2535,12 @@
       <c r="G23" t="s">
         <v>57</v>
       </c>
-      <c r="M23">
+      <c r="V23">
         <f>SUM(E23:F23)/D23</f>
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2210,12 +2553,12 @@
       <c r="G24" t="s">
         <v>57</v>
       </c>
-      <c r="M24">
+      <c r="V24">
         <f>SUM(E24:F24)/D24</f>
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2228,12 +2571,12 @@
       <c r="G25" t="s">
         <v>60</v>
       </c>
-      <c r="M25">
+      <c r="V25">
         <f>SUM(E25:F25)/D25</f>
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2246,12 +2589,12 @@
       <c r="G26" t="s">
         <v>60</v>
       </c>
-      <c r="M26">
+      <c r="V26">
         <f>SUM(E26:F26)/D26</f>
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2271,24 +2614,49 @@
       <c r="G28" t="s">
         <v>39</v>
       </c>
+      <c r="H28">
+        <v>0.3</v>
+      </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="8">C28*PI()*B28^2*0.25</f>
+        <v>0.2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>250</v>
+      </c>
+      <c r="O28">
+        <v>550</v>
+      </c>
+      <c r="P28">
+        <v>3600</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28" si="5">C28*PI()*B28^2*0.25</f>
         <v>2.9452431127404308</v>
       </c>
-      <c r="J28">
-        <f t="shared" ref="J28" si="9">D28/$I28</f>
+      <c r="S28">
+        <f t="shared" ref="S28" si="6">D28/$R28</f>
         <v>0.16976527263135505</v>
       </c>
-      <c r="K28">
-        <f t="shared" ref="K28" si="10">E28/$I28</f>
+      <c r="T28">
+        <f t="shared" ref="T28" si="7">E28/$R28</f>
         <v>147.01672609875348</v>
       </c>
-      <c r="M28">
-        <f t="shared" ref="M28:M30" si="11">SUM(E28:F28)/D28</f>
+      <c r="V28">
+        <f t="shared" ref="V28:V30" si="8">SUM(E28:F28)/D28</f>
         <v>866</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="Y28">
+        <f>O28/N28</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2307,24 +2675,49 @@
       <c r="G29" t="s">
         <v>70</v>
       </c>
+      <c r="H29">
+        <v>0.3</v>
+      </c>
       <c r="I29">
-        <f t="shared" ref="I29" si="12">C29*PI()*B29^2*0.25</f>
+        <v>0.2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>315</v>
+      </c>
+      <c r="O29">
+        <v>400</v>
+      </c>
+      <c r="P29">
+        <v>3900</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29" si="9">C29*PI()*B29^2*0.25</f>
         <v>8.7130108751904416</v>
       </c>
-      <c r="J29">
-        <f t="shared" ref="J29" si="13">D29/$I29</f>
+      <c r="S29">
+        <f t="shared" ref="S29" si="10">D29/$R29</f>
         <v>0.17215633280926146</v>
       </c>
-      <c r="K29">
-        <f t="shared" ref="K29" si="14">E29/$I29</f>
+      <c r="T29">
+        <f t="shared" ref="T29" si="11">E29/$R29</f>
         <v>97.555255258581482</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="11"/>
+      <c r="V29">
+        <f t="shared" si="8"/>
         <v>566.66666666666663</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="Y29">
+        <f t="shared" ref="Y29:Y30" si="12">O29/N29</f>
+        <v>1.2698412698412698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2343,36 +2736,65 @@
       <c r="G30" t="s">
         <v>70</v>
       </c>
+      <c r="H30">
+        <v>0.3</v>
+      </c>
       <c r="I30">
-        <f t="shared" ref="I30:I32" si="15">C30*PI()*B30^2*0.25</f>
+        <v>0.2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <v>550</v>
+      </c>
+      <c r="P30">
+        <v>3600</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R32" si="13">C30*PI()*B30^2*0.25</f>
         <v>8.8357293382212935E-3</v>
       </c>
-      <c r="J30">
-        <f t="shared" ref="J30" si="16">D30/$I30</f>
+      <c r="S30">
+        <f t="shared" ref="S30" si="14">D30/$R30</f>
         <v>1.4147106052612919</v>
       </c>
-      <c r="K30">
-        <f t="shared" ref="K30" si="17">E30/$I30</f>
+      <c r="T30">
+        <f t="shared" ref="T30" si="15">E30/$R30</f>
         <v>905.41478736722684</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="11"/>
+      <c r="V30">
+        <f t="shared" si="8"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="Y30">
+        <f t="shared" si="12"/>
+        <v>30.555555555555557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="B32">
         <v>2.5</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="15"/>
+      <c r="R32">
+        <f t="shared" si="13"/>
         <v>49.087385212340514</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
